--- a/trust/inst.xlsx
+++ b/trust/inst.xlsx
@@ -438,31 +438,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -470,19 +470,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -494,7 +494,7 @@
         <v>3</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -502,13 +502,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -517,10 +517,10 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -540,25 +540,25 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -566,31 +566,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -598,25 +598,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>3</v>
@@ -630,31 +630,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -665,28 +665,28 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -694,31 +694,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>3</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -729,28 +729,28 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>3</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -758,31 +758,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G12">
         <v>3</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -790,28 +790,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>5</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
       <c r="F13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H13">
         <v>3</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J13">
         <v>3</v>
@@ -825,28 +825,28 @@
         <v>3</v>
       </c>
       <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
         <v>5</v>
       </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
       <c r="F14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>3</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I14">
         <v>3</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -854,31 +854,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -886,28 +886,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J16">
         <v>3</v>
@@ -918,31 +918,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -950,31 +950,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -982,31 +982,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1014,31 +1014,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1046,31 +1046,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>3</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1078,31 +1078,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I22">
         <v>3</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1110,31 +1110,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1142,19 +1142,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>3</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -1166,7 +1166,7 @@
         <v>3</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1177,28 +1177,28 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>3</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H25">
         <v>3</v>
       </c>
       <c r="I25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1209,7 +1209,7 @@
         <v>3</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -1218,7 +1218,7 @@
         <v>3</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -1227,10 +1227,10 @@
         <v>3</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1238,31 +1238,31 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1273,28 +1273,28 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J28">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1302,13 +1302,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C29">
         <v>3</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -1317,10 +1317,10 @@
         <v>3</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I29">
         <v>3</v>
@@ -1334,13 +1334,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C30">
         <v>3</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -1349,10 +1349,10 @@
         <v>3</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I30">
         <v>3</v>
@@ -1366,28 +1366,28 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -1398,25 +1398,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C32">
         <v>3</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G32">
         <v>3</v>
       </c>
       <c r="H32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <v>3</v>
@@ -1430,7 +1430,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -1439,7 +1439,7 @@
         <v>3</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -1454,7 +1454,7 @@
         <v>3</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1465,25 +1465,25 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G34">
         <v>3</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J34">
         <v>3</v>
@@ -1494,28 +1494,28 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35">
         <v>3</v>
       </c>
       <c r="E35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G35">
         <v>3</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J35">
         <v>3</v>
@@ -1526,31 +1526,31 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I36">
         <v>3</v>
       </c>
       <c r="J36">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1558,22 +1558,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -1582,7 +1582,7 @@
         <v>3</v>
       </c>
       <c r="J37">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1590,31 +1590,31 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J38">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1628,13 +1628,13 @@
         <v>3</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E39">
         <v>3</v>
       </c>
       <c r="F39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G39">
         <v>3</v>
@@ -1643,10 +1643,10 @@
         <v>3</v>
       </c>
       <c r="I39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J39">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1654,31 +1654,31 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C40">
         <v>3</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E40">
         <v>3</v>
       </c>
       <c r="F40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J40">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1692,13 +1692,13 @@
         <v>3</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -1707,7 +1707,7 @@
         <v>3</v>
       </c>
       <c r="I41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J41">
         <v>3</v>
@@ -1718,31 +1718,31 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
         <v>5</v>
-      </c>
-      <c r="F42">
-        <v>4</v>
-      </c>
-      <c r="G42">
-        <v>3</v>
-      </c>
-      <c r="H42">
-        <v>4</v>
-      </c>
-      <c r="I42">
-        <v>4</v>
-      </c>
-      <c r="J42">
-        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1750,31 +1750,31 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J43">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1782,16 +1782,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F44">
         <v>3</v>
@@ -1800,13 +1800,13 @@
         <v>3</v>
       </c>
       <c r="H44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J44">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1814,19 +1814,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E45">
         <v>3</v>
       </c>
       <c r="F45">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -1835,10 +1835,10 @@
         <v>3</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J45">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1849,10 +1849,10 @@
         <v>3</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -1861,13 +1861,13 @@
         <v>3</v>
       </c>
       <c r="G46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J46">
         <v>3</v>
@@ -1881,16 +1881,16 @@
         <v>3</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E47">
         <v>3</v>
       </c>
       <c r="F47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -1910,25 +1910,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E48">
         <v>3</v>
       </c>
       <c r="F48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G48">
         <v>3</v>
       </c>
       <c r="H48">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>3</v>
@@ -1945,28 +1945,28 @@
         <v>3</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J49">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1974,13 +1974,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C50">
         <v>3</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E50">
         <v>3</v>
@@ -1989,10 +1989,10 @@
         <v>3</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I50">
         <v>3</v>
@@ -2006,28 +2006,28 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
         <v>5</v>
       </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
       <c r="F51">
         <v>3</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
         <v>5</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
       </c>
       <c r="J51">
         <v>3</v>
@@ -2038,13 +2038,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C52">
         <v>3</v>
       </c>
       <c r="D52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E52">
         <v>3</v>
@@ -2056,7 +2056,7 @@
         <v>3</v>
       </c>
       <c r="H52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I52">
         <v>3</v>
@@ -2070,31 +2070,31 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J53">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2102,31 +2102,31 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F54">
         <v>3</v>
       </c>
       <c r="G54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J54">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2137,16 +2137,16 @@
         <v>3</v>
       </c>
       <c r="C55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -2155,7 +2155,7 @@
         <v>3</v>
       </c>
       <c r="I55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J55">
         <v>3</v>
@@ -2166,10 +2166,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56">
         <v>3</v>
@@ -2178,19 +2178,19 @@
         <v>3</v>
       </c>
       <c r="F56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I56">
         <v>3</v>
       </c>
       <c r="J56">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2198,31 +2198,31 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J57">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2230,25 +2230,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G58">
         <v>3</v>
       </c>
       <c r="H58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I58">
         <v>3</v>
@@ -2262,31 +2262,31 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J59">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2294,31 +2294,31 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J60">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2329,28 +2329,28 @@
         <v>3</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E61">
         <v>3</v>
       </c>
       <c r="F61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J61">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2358,31 +2358,31 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C62">
         <v>3</v>
       </c>
       <c r="D62">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F62">
         <v>3</v>
       </c>
       <c r="G62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H62">
         <v>3</v>
       </c>
       <c r="I62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J62">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2390,31 +2390,31 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C63">
         <v>3</v>
       </c>
       <c r="D63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F63">
         <v>3</v>
       </c>
       <c r="G63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H63">
         <v>3</v>
       </c>
       <c r="I63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J63">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2428,7 +2428,7 @@
         <v>3</v>
       </c>
       <c r="D64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E64">
         <v>3</v>
@@ -2440,7 +2440,7 @@
         <v>3</v>
       </c>
       <c r="H64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>3</v>
@@ -2454,31 +2454,31 @@
         <v>63</v>
       </c>
       <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
         <v>5</v>
       </c>
-      <c r="C65">
-        <v>4</v>
-      </c>
-      <c r="D65">
-        <v>4</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
       <c r="F65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G65">
         <v>3</v>
       </c>
       <c r="H65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J65">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2486,13 +2486,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E66">
         <v>3</v>
@@ -2501,16 +2501,16 @@
         <v>3</v>
       </c>
       <c r="G66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J66">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2518,7 +2518,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -2539,7 +2539,7 @@
         <v>3</v>
       </c>
       <c r="I67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J67">
         <v>3</v>
@@ -2556,13 +2556,13 @@
         <v>3</v>
       </c>
       <c r="D68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G68">
         <v>3</v>
@@ -2585,16 +2585,16 @@
         <v>3</v>
       </c>
       <c r="C69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E69">
         <v>3</v>
       </c>
       <c r="F69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G69">
         <v>3</v>
@@ -2603,10 +2603,10 @@
         <v>3</v>
       </c>
       <c r="I69">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J69">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2614,31 +2614,31 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E70">
         <v>3</v>
       </c>
       <c r="F70">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H70">
         <v>3</v>
       </c>
       <c r="I70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J70">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2649,28 +2649,28 @@
         <v>3</v>
       </c>
       <c r="C71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E71">
         <v>3</v>
       </c>
       <c r="F71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G71">
         <v>3</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I71">
         <v>3</v>
       </c>
       <c r="J71">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2678,31 +2678,31 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C72">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J72">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2710,28 +2710,28 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G73">
         <v>3</v>
       </c>
       <c r="H73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J73">
         <v>3</v>
@@ -2742,19 +2742,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E74">
         <v>3</v>
       </c>
       <c r="F74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G74">
         <v>3</v>
@@ -2766,7 +2766,7 @@
         <v>3</v>
       </c>
       <c r="J74">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2774,31 +2774,31 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J75">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2806,31 +2806,31 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G76">
         <v>3</v>
       </c>
       <c r="H76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J76">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2838,31 +2838,31 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J77">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2870,31 +2870,31 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E78">
         <v>3</v>
       </c>
       <c r="F78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G78">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J78">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -2902,31 +2902,31 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C79">
         <v>3</v>
       </c>
       <c r="D79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E79">
         <v>3</v>
       </c>
       <c r="F79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J79">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2937,28 +2937,28 @@
         <v>3</v>
       </c>
       <c r="C80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H80">
         <v>3</v>
       </c>
       <c r="I80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J80">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -2966,19 +2966,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E81">
         <v>3</v>
       </c>
       <c r="F81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -2990,7 +2990,7 @@
         <v>3</v>
       </c>
       <c r="J81">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -3001,10 +3001,10 @@
         <v>3</v>
       </c>
       <c r="C82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E82">
         <v>3</v>
@@ -3013,13 +3013,13 @@
         <v>3</v>
       </c>
       <c r="G82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H82">
         <v>3</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -3030,31 +3030,31 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J83">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3062,31 +3062,31 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C84">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E84">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F84">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J84">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3094,31 +3094,31 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E85">
         <v>3</v>
       </c>
       <c r="F85">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J85">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3126,28 +3126,28 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E86">
         <v>3</v>
       </c>
       <c r="F86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J86">
         <v>3</v>
@@ -3158,7 +3158,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -3167,7 +3167,7 @@
         <v>3</v>
       </c>
       <c r="E87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F87">
         <v>3</v>
@@ -3176,13 +3176,13 @@
         <v>3</v>
       </c>
       <c r="H87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J87">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -3190,31 +3190,31 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E88">
         <v>3</v>
       </c>
       <c r="F88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G88">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J88">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3222,31 +3222,31 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G89">
         <v>3</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J89">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3254,7 +3254,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -3266,19 +3266,19 @@
         <v>3</v>
       </c>
       <c r="F90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J90">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -3286,31 +3286,31 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F91">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G91">
         <v>3</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J91">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3318,19 +3318,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C92">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E92">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F92">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G92">
         <v>3</v>
@@ -3339,10 +3339,10 @@
         <v>3</v>
       </c>
       <c r="I92">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J92">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -3350,25 +3350,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E93">
         <v>3</v>
       </c>
       <c r="F93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G93">
         <v>3</v>
       </c>
       <c r="H93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I93">
         <v>3</v>
@@ -3382,31 +3382,31 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J94">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -3414,28 +3414,28 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E95">
         <v>3</v>
       </c>
       <c r="F95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J95">
         <v>3</v>
@@ -3446,31 +3446,31 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J96">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -3478,28 +3478,28 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J97">
         <v>3</v>
@@ -3516,7 +3516,7 @@
         <v>3</v>
       </c>
       <c r="D98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E98">
         <v>3</v>
@@ -3531,10 +3531,10 @@
         <v>3</v>
       </c>
       <c r="I98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J98">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -3542,31 +3542,31 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="G99">
+        <v>2</v>
+      </c>
+      <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="I99">
         <v>5</v>
       </c>
-      <c r="D99">
-        <v>4</v>
-      </c>
-      <c r="E99">
-        <v>4</v>
-      </c>
-      <c r="F99">
-        <v>4</v>
-      </c>
-      <c r="G99">
-        <v>4</v>
-      </c>
-      <c r="H99">
-        <v>4</v>
-      </c>
-      <c r="I99">
-        <v>1</v>
-      </c>
       <c r="J99">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -3574,31 +3574,31 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F100">
         <v>3</v>
       </c>
       <c r="G100">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J100">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -3606,25 +3606,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C101">
         <v>3</v>
       </c>
       <c r="D101">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E101">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F101">
         <v>3</v>
       </c>
       <c r="G101">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H101">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I101">
         <v>3</v>
@@ -3647,22 +3647,22 @@
         <v>3</v>
       </c>
       <c r="E102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G102">
         <v>3</v>
       </c>
       <c r="H102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I102">
         <v>3</v>
       </c>
       <c r="J102">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -3670,31 +3670,31 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E103">
         <v>3</v>
       </c>
       <c r="F103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J103">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -3702,31 +3702,31 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E104">
         <v>3</v>
       </c>
       <c r="F104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J104">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -3734,19 +3734,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C105">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D105">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E105">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F105">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G105">
         <v>3</v>
@@ -3758,7 +3758,7 @@
         <v>3</v>
       </c>
       <c r="J105">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -3766,7 +3766,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C106">
         <v>3</v>
@@ -3775,7 +3775,7 @@
         <v>3</v>
       </c>
       <c r="E106">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F106">
         <v>3</v>
@@ -3784,7 +3784,7 @@
         <v>3</v>
       </c>
       <c r="H106">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I106">
         <v>3</v>
@@ -3798,19 +3798,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C107">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D107">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E107">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F107">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G107">
         <v>3</v>
@@ -3830,16 +3830,16 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C108">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D108">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E108">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F108">
         <v>3</v>
@@ -3848,7 +3848,7 @@
         <v>3</v>
       </c>
       <c r="H108">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I108">
         <v>3</v>
@@ -3862,31 +3862,31 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J109">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -3894,31 +3894,31 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D110">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F110">
         <v>3</v>
       </c>
       <c r="G110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J110">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -3929,19 +3929,19 @@
         <v>3</v>
       </c>
       <c r="C111">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D111">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E111">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F111">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G111">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H111">
         <v>3</v>
@@ -3961,28 +3961,28 @@
         <v>3</v>
       </c>
       <c r="C112">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D112">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E112">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F112">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G112">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H112">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J112">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -3990,22 +3990,22 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C113">
         <v>3</v>
       </c>
       <c r="D113">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E113">
         <v>3</v>
       </c>
       <c r="F113">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G113">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H113">
         <v>3</v>
@@ -4014,7 +4014,7 @@
         <v>3</v>
       </c>
       <c r="J113">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -4022,31 +4022,31 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D114">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E114">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F114">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I114">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J114">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -4054,31 +4054,31 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C115">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D115">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E115">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F115">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G115">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H115">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J115">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -4086,31 +4086,31 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C116">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F116">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J116">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -4118,31 +4118,31 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C117">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D117">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H117">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J117">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -4150,31 +4150,31 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C118">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I118">
         <v>3</v>
       </c>
       <c r="J118">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -4182,31 +4182,31 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C119">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D119">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E119">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F119">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G119">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H119">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J119">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -4214,7 +4214,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C120">
         <v>3</v>
@@ -4232,10 +4232,10 @@
         <v>3</v>
       </c>
       <c r="H120">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I120">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J120">
         <v>3</v>
@@ -4252,22 +4252,22 @@
         <v>3</v>
       </c>
       <c r="D121">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E121">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F121">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G121">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H121">
         <v>3</v>
       </c>
       <c r="I121">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J121">
         <v>3</v>
@@ -4284,13 +4284,13 @@
         <v>3</v>
       </c>
       <c r="D122">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E122">
         <v>3</v>
       </c>
       <c r="F122">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G122">
         <v>3</v>
@@ -4299,7 +4299,7 @@
         <v>3</v>
       </c>
       <c r="I122">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J122">
         <v>3</v>
@@ -4310,31 +4310,31 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C123">
         <v>3</v>
       </c>
       <c r="D123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E123">
         <v>3</v>
       </c>
       <c r="F123">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G123">
         <v>3</v>
       </c>
       <c r="H123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J123">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -4342,31 +4342,31 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G124">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I124">
         <v>3</v>
       </c>
       <c r="J124">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
